--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\gses\admin-console_rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C52592-A98C-4F3A-9D46-EEA034887589}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D60E36-9D25-466E-8F2E-33886A8D1CFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" activeTab="1" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="权限管理" sheetId="1" r:id="rId1"/>
+    <sheet name="框架问题" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +129,96 @@
   </si>
   <si>
     <t>邮箱、地址等地段的显示泡泡鼠标移动之后就消失了，无法选择。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理-&gt;机构管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头包括“机构代码”字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“机构代码”字段缺失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前管理员无论权限为何，进入编辑窗口之后默认都为未选中状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对管理员进行编辑时，权限选项选中状态应与当账户当前状态对应。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选“姓名”左侧框后，点击删除，则删除本页全部账户。</t>
+  </si>
+  <si>
+    <t>账户删除失败（多选几个删除是成功的）。</t>
+  </si>
+  <si>
+    <t>展开搜索之后，只搜索符合字段条件的机构管理员。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展开搜索之后，点击“清空”按钮之后，清空所有已选字段数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前“清空”按钮无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索出的结果包含了官方管理员。（反之亦然，在官方管理员中搜索也出现机构管理员。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建机构管理员时，选择机构的方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多余了下拉按钮，显示形式与设计不一致，同时搜索结果也不正确：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建机构管理员时，必填字段加*：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填字段没有*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码*化，手机、邮箱进行基本格式检测。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码明码显示，各个字段没有基本格式检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写信息之后创建新管理员失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新管理员一直失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“管理员”修改为“官方管理员”，便于区分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前显示为“管理员”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签跳转目前都是重新刷新，能否保存状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用户token未过期，进入登录页面自动跳转</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,6 +965,406 @@
         <a:xfrm>
           <a:off x="2609851" y="26050875"/>
           <a:ext cx="4762500" cy="1975931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>314326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6370116</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1209675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="28775026"/>
+          <a:ext cx="6312966" cy="895349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5810249</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4525289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="30146625"/>
+          <a:ext cx="5772149" cy="4163339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>438149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7123642</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>4429124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429499" y="36242624"/>
+          <a:ext cx="7095068" cy="3990975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4143375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5164773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="40976550"/>
+          <a:ext cx="4095750" cy="4764723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3968262</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5162550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="40957500"/>
+          <a:ext cx="3920637" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>333377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5158670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458076" y="46110527"/>
+          <a:ext cx="3343274" cy="4825293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>409575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4162425</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5174298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="46186725"/>
+          <a:ext cx="4095750" cy="4764723"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6184047</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3905250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7486649" y="51711225"/>
+          <a:ext cx="6098323" cy="3571875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1182,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96951FC-5AC3-4C8C-ADC4-94DF8F3660AC}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1193,9 +1684,9 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="70.21875" customWidth="1"/>
-    <col min="4" max="4" width="78" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="104.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
@@ -1365,9 +1856,196 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="359.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="351" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="313.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AFC641-D68D-41CC-B684-0F6EA2D1EA98}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\gses\admin-console_rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D60E36-9D25-466E-8F2E-33886A8D1CFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF64C7-3A22-40BA-A63E-E1BE00C5807D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" activeTab="1" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +250,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +269,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +317,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96951FC-5AC3-4C8C-ADC4-94DF8F3660AC}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1742,7 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1736,8 +1756,8 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="284.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1770,7 @@
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1767,7 +1787,7 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1784,7 +1804,7 @@
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2017,7 +2037,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2025,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AFC641-D68D-41CC-B684-0F6EA2D1EA98}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\gses\admin-console_rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF64C7-3A22-40BA-A63E-E1BE00C5807D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D60E36-9D25-466E-8F2E-33886A8D1CFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" activeTab="1" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,16 +250,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,12 +261,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,12 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1695,8 +1675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96951FC-5AC3-4C8C-ADC4-94DF8F3660AC}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1742,7 +1722,7 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1756,8 +1736,8 @@
       <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>10</v>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="284.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,7 +1750,7 @@
       <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1787,7 +1767,7 @@
       <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1804,7 +1784,7 @@
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2037,8 +2017,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2046,7 +2025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AFC641-D68D-41CC-B684-0F6EA2D1EA98}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\gses\admin-console_rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D60E36-9D25-466E-8F2E-33886A8D1CFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BC560-CB67-4BE4-ADCD-39000A65705C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" activeTab="1" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增或编辑账户时，一些特定字段有基本格式检测；比如，邮箱格式，手机字符长度。如果不满足要求，显示错误提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必填项须有*号；权限如果无勾选即“无”状态；密码虚*隐去。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>只有某些字段有排序选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出的显示泡泡中的文字可选择，方便用户复制粘贴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,6 +211,47 @@
   </si>
   <si>
     <t>如果用户token未过期，进入登录页面自动跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增或编辑账户时，一些特定字段有基本格式检测；比如，邮箱格式，手机字符长度。如果不满足要求，在focus离开当前输入框后显示错误提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改地址后，新地址不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态字段排序有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头左上角多了…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待修改(官方管理员页面已修复，机构管理员页面仍有问题)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待修改（管理员权限字段仍未清空，其他字段都可以清空）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建新管理员之后页面不主动刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理-&gt;机构管理员
+权限管理-&gt;官方管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改地址后，新地址不显示，并且总是弹出是否保存密码对话框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +283,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,7 +326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,6 +350,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4782249</xdr:colOff>
+      <xdr:colOff>4657725</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>828675</xdr:rowOff>
+      <xdr:rowOff>815700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -863,8 +925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="24765000"/>
-          <a:ext cx="4753674" cy="495300"/>
+          <a:off x="2609850" y="26355675"/>
+          <a:ext cx="4629150" cy="482325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,8 +993,8 @@
       <xdr:rowOff>647700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4791076</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>2623631</xdr:rowOff>
     </xdr:to>
@@ -1365,6 +1427,161 @@
         <a:xfrm>
           <a:off x="7486649" y="51711225"/>
           <a:ext cx="6098323" cy="3571875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4076700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>5099970</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647951" y="7962899"/>
+          <a:ext cx="4010024" cy="4699921"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2432799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7343775" y="59121675"/>
+          <a:ext cx="1581150" cy="2166099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6134100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3756219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="62779275"/>
+          <a:ext cx="6076950" cy="3470469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,17 +1890,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96951FC-5AC3-4C8C-ADC4-94DF8F3660AC}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="70.21875" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
     <col min="4" max="4" width="104.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
@@ -1722,7 +1939,7 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1734,13 +1951,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="284.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1748,9 +1965,9 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1762,12 +1979,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1779,12 +1996,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1796,13 +2013,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,13 +2030,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
+      <c r="F8" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1830,12 +2047,12 @@
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1847,13 +2064,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1861,16 +2078,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>11</v>
+      <c r="F11" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="359.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,16 +2095,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,16 +2112,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="351" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,33 +2129,34 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -1946,61 +2164,70 @@
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="313.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="313.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -2008,10 +2235,70 @@
         <v>5</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="194.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2025,7 +2312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AFC641-D68D-41CC-B684-0F6EA2D1EA98}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2036,12 +2323,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\gses\admin-console_rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BC560-CB67-4BE4-ADCD-39000A65705C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC753A0-43FC-4311-9E1A-FB46EF067E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前“清空”按钮无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索出的结果包含了官方管理员。（反之亦然，在官方管理员中搜索也出现机构管理员。）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,15 +222,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>状态字段排序有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表头左上角多了…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待修改(官方管理员页面已修复，机构管理员页面仍有问题)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,6 +240,22 @@
   </si>
   <si>
     <t>修改地址后，新地址不显示，并且总是弹出是否保存密码对话框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理-&gt;官方管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婷婷调整一下字段宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前官方管理员页面搜索“清空”按钮无效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了“状态”字段以外，所有字段点击向下箭头无论多少次都是降序，点击向上箭头无论多少次都是升序；而“状态”字段每点击一次箭头就会更换排序顺序，这个行为与其他字段不统一。应该也是，点击向下箭头无论多少次都是降序，点击向上箭头无论多少次都是升序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,15 +442,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>49530</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3941784</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>5191571</xdr:rowOff>
+      <xdr:colOff>3945594</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -475,8 +479,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4733925" y="2390775"/>
-          <a:ext cx="3901779" cy="5159186"/>
+          <a:off x="7331825" y="2381943"/>
+          <a:ext cx="3896064" cy="5166806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -496,7 +500,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3943687</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>5100087</xdr:rowOff>
+      <xdr:rowOff>5084847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -546,7 +550,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>4837205</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>3518834</xdr:rowOff>
+      <xdr:rowOff>3526454</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -594,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5153025</xdr:colOff>
+      <xdr:colOff>5158740</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2260348</xdr:rowOff>
+      <xdr:rowOff>2267968</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -644,7 +648,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5248275</xdr:colOff>
+      <xdr:colOff>5236845</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>3755261</xdr:rowOff>
     </xdr:to>
@@ -688,15 +692,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>50347</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
+      <xdr:rowOff>935082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4448175</xdr:colOff>
+      <xdr:colOff>4683260</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2969381</xdr:rowOff>
+      <xdr:rowOff>3074397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -725,8 +729,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2647950" y="14439900"/>
-          <a:ext cx="4381500" cy="2016881"/>
+          <a:off x="2635704" y="16011796"/>
+          <a:ext cx="4632913" cy="2146935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,7 +750,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>3349251</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4410075</xdr:rowOff>
+      <xdr:rowOff>4398645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -846,7 +850,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>3332506</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2295525</xdr:rowOff>
+      <xdr:rowOff>2301240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -894,7 +898,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4657725</xdr:colOff>
+      <xdr:colOff>4663440</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>815700</xdr:rowOff>
     </xdr:to>
@@ -938,15 +942,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
+      <xdr:colOff>49531</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>342900</xdr:rowOff>
+      <xdr:rowOff>619991</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5286375</xdr:colOff>
+      <xdr:colOff>5278755</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>849201</xdr:rowOff>
+      <xdr:rowOff>1132007</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -975,8 +979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7448551" y="24774525"/>
-          <a:ext cx="5238749" cy="506301"/>
+          <a:off x="7331826" y="26640559"/>
+          <a:ext cx="5229224" cy="515826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -994,9 +998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
+      <xdr:colOff>91441</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2623631</xdr:rowOff>
+      <xdr:rowOff>2608391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1043,10 +1047,10 @@
       <xdr:rowOff>314326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6370116</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>289529</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1209675</xdr:rowOff>
+      <xdr:rowOff>1198245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1096,7 +1100,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>5810249</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>4525289</xdr:rowOff>
+      <xdr:rowOff>4513859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1138,15 +1142,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>26669</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>438149</xdr:rowOff>
+      <xdr:rowOff>441959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7123642</xdr:colOff>
+      <xdr:colOff>6042266</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>4429124</xdr:rowOff>
+      <xdr:rowOff>3831128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1175,8 +1179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7429499" y="36242624"/>
-          <a:ext cx="7095068" cy="3990975"/>
+          <a:off x="7308964" y="38178277"/>
+          <a:ext cx="6011787" cy="3385359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1194,7 +1198,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4143375</xdr:colOff>
+      <xdr:colOff>4131945</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>5164773</xdr:rowOff>
     </xdr:to>
@@ -1244,7 +1248,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3968262</xdr:colOff>
+      <xdr:colOff>3977787</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>5162550</xdr:rowOff>
     </xdr:to>
@@ -1294,9 +1298,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3400425</xdr:colOff>
+      <xdr:colOff>3406140</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>5158670</xdr:rowOff>
+      <xdr:rowOff>5166290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1344,9 +1348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4162425</xdr:colOff>
+      <xdr:colOff>4168140</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>5174298</xdr:rowOff>
+      <xdr:rowOff>5164773</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1393,8 +1397,8 @@
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6184047</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97745</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>3905250</xdr:rowOff>
     </xdr:to>
@@ -1446,7 +1450,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>4076700</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5099970</xdr:rowOff>
+      <xdr:rowOff>5084730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1496,7 +1500,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1638300</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>2432799</xdr:rowOff>
+      <xdr:rowOff>2417559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1554,8 +1558,8 @@
       <xdr:rowOff>285750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6134100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>59228</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>3756219</xdr:rowOff>
     </xdr:to>
@@ -1892,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96951FC-5AC3-4C8C-ADC4-94DF8F3660AC}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1905,7 @@
     <col min="1" max="1" width="13.109375" customWidth="1"/>
     <col min="2" max="2" width="24.5546875" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" customWidth="1"/>
-    <col min="4" max="4" width="104.44140625" customWidth="1"/>
+    <col min="4" max="4" width="88.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
   </cols>
@@ -1965,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>11</v>
@@ -1984,8 +1988,8 @@
       <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>11</v>
+      <c r="F5" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="319.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,13 +1997,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>11</v>
@@ -2019,7 +2026,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,10 +2043,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -2049,8 +2056,8 @@
       <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>50</v>
+      <c r="D9" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>11</v>
@@ -2070,7 +2077,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +2094,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="359.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,8 +2110,8 @@
       <c r="D12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>52</v>
+      <c r="F12" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2121,7 +2128,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="351" customHeight="1" x14ac:dyDescent="0.25">
@@ -2135,10 +2142,10 @@
         <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2152,11 +2159,11 @@
         <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,13 +2174,13 @@
         <v>24</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,13 +2191,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,13 +2208,13 @@
         <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
+      <c r="F18" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="313.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -2218,13 +2225,13 @@
         <v>24</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F19" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -2235,13 +2242,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2253,7 +2260,7 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>11</v>
@@ -2264,10 +2271,10 @@
         <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>11</v>
@@ -2281,7 +2288,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>11</v>
@@ -2292,10 +2299,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>11</v>
@@ -2304,7 +2311,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2323,12 +2331,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\gses\admin-console_rs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC753A0-43FC-4311-9E1A-FB46EF067E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9684" xr2:uid="{E874D957-905D-4118-9749-85FB572A4108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16800"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
     <sheet name="框架问题" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +224,6 @@
   </si>
   <si>
     <t>待修改（管理员权限字段仍未清空，其他字段都可以清空）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建新管理员之后页面不主动刷新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -239,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改地址后，新地址不显示，并且总是弹出是否保存密码对话框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>权限管理-&gt;官方管理员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,30 +240,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前官方管理员页面搜索“清空”按钮无效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了“状态”字段以外，所有字段点击向下箭头无论多少次都是降序，点击向上箭头无论多少次都是升序；而“状态”字段每点击一次箭头就会更换排序顺序，这个行为与其他字段不统一。应该也是，点击向下箭头无论多少次都是降序，点击向上箭头无论多少次都是升序。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段以外，所有字段点击向下箭头无论多少次都是降序，点击向上箭头无论多少次都是升序；而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字段每点击一次箭头就会更换排序顺序，这个行为与其他字段不统一。应该也是，点击向下箭头无论多少次都是降序，点击向上箭头无论多少次都是升序。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(补充：仍存在问题，重复多次点击同一箭头，会出现升降序来回切换的情况)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前官方管理员页面搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮无效。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>创建新管理员之后页面不主动刷新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（新建管理员之后，弹窗未关闭。另外：新建的管理员 能否放在首行）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>修改地址后，新地址不显示，并且总是弹出是否保存密码对话框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（官方管理员已解决，机构管理员未解决）</t>
+    </r>
+  </si>
+  <si>
+    <t>信息不能展示完整的情况下，字段里面是否多出现了"…"</t>
+  </si>
+  <si>
+    <t>在进行 “删除”动作后，没有提示确认删除的弹窗。</t>
+  </si>
+  <si>
+    <t>点击显示列按钮，进行标题显示选择的时候：鼠标点击显示正常，但是鼠标移动过去勾选的时候，显示列一半被隐藏了，鼠标移开又完整展示了</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -282,7 +459,7 @@
     <font>
       <sz val="20"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,10 +467,41 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -325,12 +533,150 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,9 +716,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,7 +811,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -457,7 +861,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -507,7 +911,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -557,7 +961,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -607,7 +1011,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -657,7 +1061,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -707,7 +1111,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -757,7 +1161,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -807,7 +1211,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +1261,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -907,7 +1311,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,22 +1346,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>49531</xdr:colOff>
+      <xdr:colOff>164985</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>619991</xdr:rowOff>
+      <xdr:rowOff>643082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5278755</xdr:colOff>
+      <xdr:colOff>5394209</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1132007</xdr:rowOff>
+      <xdr:rowOff>1155098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -979,8 +1383,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7331826" y="26640559"/>
-          <a:ext cx="5229224" cy="515826"/>
+          <a:off x="8269894" y="26620355"/>
+          <a:ext cx="5229224" cy="512016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -992,22 +1396,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>647700</xdr:rowOff>
+      <xdr:rowOff>692728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>91441</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5199978</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2608391</xdr:rowOff>
+      <xdr:rowOff>2608392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,8 +1433,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609851" y="26050875"/>
-          <a:ext cx="4762500" cy="1975931"/>
+          <a:off x="2903393" y="27974637"/>
+          <a:ext cx="5171403" cy="1915664"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,7 +1461,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1511,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1157,7 +1561,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1611,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1661,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1711,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1761,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1811,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1861,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1911,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1538,7 +1942,7 @@
         </a:prstGeom>
         <a:noFill/>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
@@ -1568,7 +1972,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,6 +1990,158 @@
         <a:xfrm>
           <a:off x="7343775" y="62779275"/>
           <a:ext cx="6076950" cy="3470469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>334818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3670299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>982518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9247908" y="66825091"/>
+          <a:ext cx="2527300" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1235362</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4327721</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2586182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4110180" y="67631878"/>
+          <a:ext cx="3092359" cy="2472122"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1477818</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>461818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2842756</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3163454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582727" y="70692818"/>
+          <a:ext cx="1364938" cy="2701636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3221184</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>334818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4471066</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3001819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11326093" y="70565818"/>
+          <a:ext cx="1249882" cy="2667001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1640,7 +2196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1692,7 +2248,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1886,31 +2442,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96951FC-5AC3-4C8C-ADC4-94DF8F3660AC}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="68.6640625" customWidth="1"/>
-    <col min="4" max="4" width="88.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="88.5" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="25.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1930,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="160.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="160.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +2503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="409.5" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="409.5" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1971,11 +2527,11 @@
       <c r="C4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>11</v>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="182.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="182.5" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1992,12 +2548,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="319.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="319.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -2006,13 +2562,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>53</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="352.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="352.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -2029,7 +2585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="189.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="189.5" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2602,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="103.25" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -2057,13 +2613,14 @@
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="240.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="240.5" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -2080,7 +2637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="104.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="359.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="359.5" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -2114,7 +2671,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="114.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +2688,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="351" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="351" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2705,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="79.25" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
@@ -2159,14 +2716,14 @@
         <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="E15" s="14"/>
       <c r="F15" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="409.25" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -2183,7 +2740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="409.25" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -2217,7 +2774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="313.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="313.25" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>4</v>
       </c>
@@ -2234,7 +2791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="104.5" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2808,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="45.5" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -2262,11 +2819,11 @@
       <c r="D21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>11</v>
+      <c r="F21" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="194.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="194.5" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -2276,65 +2833,112 @@
       <c r="D22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>11</v>
+      <c r="F22" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="37.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>51</v>
+      <c r="D23" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="299.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="299.5" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="81" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="214" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="272" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AFC641-D68D-41CC-B684-0F6EA2D1EA98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" customWidth="1"/>
+    <col min="1" max="1" width="52.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2342,5 +2946,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16800"/>
+    <workbookView xWindow="-6880" yWindow="960" windowWidth="28800" windowHeight="16680"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
   <si>
     <t>设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,12 +435,18 @@
   <si>
     <t>点击显示列按钮，进行标题显示选择的时候：鼠标点击显示正常，但是鼠标移动过去勾选的时候，显示列一半被隐藏了，鼠标移开又完整展示了</t>
   </si>
+  <si>
+    <t>机构列表</t>
+  </si>
+  <si>
+    <t>明明是正确的号码，可是显示不正确</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +509,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LiXuKe"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -533,7 +545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,8 +687,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,8 +758,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -753,6 +786,9 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -776,6 +812,9 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -811,7 +850,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,7 +900,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -911,7 +950,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,7 +1000,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1050,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1100,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1150,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1161,7 +1200,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1250,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1300,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,7 +1350,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1400,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1411,7 +1450,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1461,7 +1500,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1550,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1561,7 +1600,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1650,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,7 +1700,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1750,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1761,7 +1800,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1850,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1900,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1950,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1972,7 +2011,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,6 +2181,44 @@
         <a:xfrm>
           <a:off x="11326093" y="70565818"/>
           <a:ext cx="1249882" cy="2667001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1335935</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4387273</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2696374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9440844" y="73821636"/>
+          <a:ext cx="3051338" cy="2557829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2442,7 +2519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2450,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2904,6 +2981,20 @@
         <v>60</v>
       </c>
       <c r="F27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="218" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-6880" yWindow="960" windowWidth="28800" windowHeight="16680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
     <sheet name="框架问题" sheetId="3" r:id="rId2"/>
+    <sheet name="机构列表" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
   <si>
     <t>设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,12 +442,50 @@
   <si>
     <t>明明是正确的号码，可是显示不正确</t>
   </si>
+  <si>
+    <t>官方管理</t>
+  </si>
+  <si>
+    <t>点击搜索框的时候，上下两栏目重叠了</t>
+  </si>
+  <si>
+    <t>创建时间后面增加“修改时间”</t>
+  </si>
+  <si>
+    <t>1:选择数字区间的时候，点击第一个框选择数字的时候，有时候会直接链接到第二个框。另外起始数字从0开始！2:直接在框内输入数值进行搜索，第一个框ok，第二个框无法正常输入数值。</t>
+  </si>
+  <si>
+    <r>
+      <t>在“编辑”窗口里，字段也要加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，以免用户在使用过程中造成错误理解操作</t>
+    </r>
+  </si>
+  <si>
+    <t>机构名称需要做成可点击的</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +554,33 @@
       <name val="LiXuKe"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -545,7 +611,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,8 +771,80 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -761,8 +899,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -789,6 +936,18 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -815,6 +974,18 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2219,6 +2390,489 @@
         <a:xfrm>
           <a:off x="9440844" y="73821636"/>
           <a:ext cx="3051338" cy="2557829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>762000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3746500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1422400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="1079500"/>
+          <a:ext cx="3657600" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164985</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>643082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5394209</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>647098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267585" y="26614582"/>
+          <a:ext cx="5229224" cy="512016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3835400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7289800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1282700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="1041400"/>
+          <a:ext cx="3454400" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>508000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6955170</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2184400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6756400" y="2501900"/>
+          <a:ext cx="6091570" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164985</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>643082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5394209</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>647098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057785" y="960582"/>
+          <a:ext cx="5229224" cy="4016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>914400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6261100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1587500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="5283200"/>
+          <a:ext cx="5219700" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164985</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>643082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5394209</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>647098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057785" y="2636982"/>
+          <a:ext cx="5229224" cy="4016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1536700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>673100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5753100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3999184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="7137400"/>
+          <a:ext cx="4216400" cy="3326084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164985</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>643082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5394209</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>647098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057785" y="5011882"/>
+          <a:ext cx="5229224" cy="4016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2692400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3009900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8585200" y="11252200"/>
+          <a:ext cx="1422400" cy="2603500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164985</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>643082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5394209</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>647098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057785" y="7107382"/>
+          <a:ext cx="5229224" cy="4016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2529,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="C9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3043,4 +3697,221 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="100.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="132" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="187" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="165" customHeight="1">
+      <c r="A4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="345" customHeight="1">
+      <c r="A5" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="263" customHeight="1">
+      <c r="A6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" ht="25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" ht="25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" ht="25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" ht="25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" ht="25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" ht="25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" ht="25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" ht="25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" ht="25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="1:2" ht="25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="1:2" ht="25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+    </row>
+    <row r="19" spans="1:2" ht="25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+    </row>
+    <row r="20" spans="1:2" ht="25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+    </row>
+    <row r="21" spans="1:2" ht="25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:2" ht="25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:2" ht="25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="1:2" ht="25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:2" ht="25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:2" ht="25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:2" ht="25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:2" ht="25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:2" ht="25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="1:2" ht="25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:2" ht="25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+    </row>
+    <row r="32" spans="1:2" ht="25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="1:2" ht="25">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="1:2" ht="25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
@@ -1021,7 +1021,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1071,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1121,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1171,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1221,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1271,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1321,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1371,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1521,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1621,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1671,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1721,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1771,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1821,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1871,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1921,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1971,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2021,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2071,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2121,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2182,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2459,7 @@
         <xdr:cNvPr id="4" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2585,7 @@
         <xdr:cNvPr id="8" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2673,7 @@
         <xdr:cNvPr id="13" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2761,7 @@
         <xdr:cNvPr id="12" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2849,7 @@
         <xdr:cNvPr id="15" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3173,7 +3173,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3704,7 +3704,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/现存问题反馈.xlsx
+++ b/现存问题反馈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="权限管理" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
   <si>
     <t>设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,9 +452,6 @@
     <t>创建时间后面增加“修改时间”</t>
   </si>
   <si>
-    <t>1:选择数字区间的时候，点击第一个框选择数字的时候，有时候会直接链接到第二个框。另外起始数字从0开始！2:直接在框内输入数值进行搜索，第一个框ok，第二个框无法正常输入数值。</t>
-  </si>
-  <si>
     <r>
       <t>在“编辑”窗口里，字段也要加</t>
     </r>
@@ -478,7 +475,27 @@
     </r>
   </si>
   <si>
-    <t>机构名称需要做成可点击的</t>
+    <t>剩余时间与账户数，不为0的情况下，都是可以点击的，字体颜色为蓝色</t>
+  </si>
+  <si>
+    <t>机构名称需要做成可点击的，字体颜色为蓝色，更直观</t>
+  </si>
+  <si>
+    <r>
+      <t>1:选择数字区间的时候，点击第一个框选择数字的时候，有时候会直接链接到第二个框。另外起始数字从0开始！2:直接在框内输入数值进行搜索，第一个框ok，第二个框无法正常输入数值。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（第一个框输入数字之后，第二个框不能正常输入）</t>
+    </r>
+  </si>
+  <si>
+    <t>箭头的升降序，点击上面的是升降序来回切换，点击下面的没有来回切换。最好能统一，要么一个升序一个降序，要么都是来回切换。</t>
   </si>
 </sst>
 </file>
@@ -611,8 +628,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,7 +986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -948,6 +1025,16 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -986,6 +1073,16 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1021,7 +1118,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65E628C-FAC1-4E24-9F62-B07D4B53DCEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1071,7 +1168,7 @@
         <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF253AA6-116B-4366-B325-BE1497BB4C0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1218,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AC4E451-9A3C-4045-BFE1-AE266477EFF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1268,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D63905-139F-40E8-AFDA-5BE0D259989B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1221,7 +1318,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7F104C6-8CBB-41B7-AF24-E5641FBA7631}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1368,7 @@
         <xdr:cNvPr id="11" name="图片 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864ADBD4-3C7B-4D68-8F84-764D9F5649CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1418,7 @@
         <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC10D1-42BC-414F-AA80-3C4DD94C0677}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1371,7 +1468,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94D5774-6183-4E1E-BB4C-4E58A859CE66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1518,7 @@
         <xdr:cNvPr id="17" name="图片 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F635119F-8AD1-498B-B1F9-95C9D56658F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1568,7 @@
         <xdr:cNvPr id="19" name="图片 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCF9A66-3272-4CED-ADEF-36F8807DCED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1521,7 +1618,7 @@
         <xdr:cNvPr id="21" name="图片 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3E94BD-0C96-4CE4-8A1D-7E5CFD3C7DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1668,7 @@
         <xdr:cNvPr id="23" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1718,7 @@
         <xdr:cNvPr id="25" name="图片 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05203139-7E6C-4E3A-A19A-7DC94207B712}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1768,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0FE885-1691-4BC6-ABC1-74FBF351E062}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1818,7 @@
         <xdr:cNvPr id="10" name="图片 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F324B951-BB99-406F-A815-AAA2465F1269}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1771,7 +1868,7 @@
         <xdr:cNvPr id="14" name="图片 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E029439-70B9-4536-AB46-909E5B7D64E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1821,7 +1918,7 @@
         <xdr:cNvPr id="18" name="图片 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6E07FA-15F5-4DA6-AF88-0C178876D5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1968,7 @@
         <xdr:cNvPr id="22" name="图片 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{844BD69F-2B5B-4B80-A9CE-4CB7DAD2D2AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +2018,7 @@
         <xdr:cNvPr id="28" name="图片 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8934AEB0-DBB3-49FA-8515-4653A1D6E1CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +2068,7 @@
         <xdr:cNvPr id="29" name="图片 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E6CFAE-5442-445F-BD19-2A7DB0820D97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2021,7 +2118,7 @@
         <xdr:cNvPr id="33" name="图片 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714B1A05-A756-4A85-AF40-B3FD0231463A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2168,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE5F33DB-BB47-4784-9EF0-88CEC4790A14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2218,7 @@
         <xdr:cNvPr id="30" name="图片 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089E1B9F-A25A-4B7C-90DC-94A41CF1FE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2182,7 +2279,7 @@
         <xdr:cNvPr id="24" name="图片 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8B3DBC-7D2A-4025-8D16-A8BA1566FE42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2556,7 @@
         <xdr:cNvPr id="4" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2682,7 @@
         <xdr:cNvPr id="8" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2673,7 +2770,7 @@
         <xdr:cNvPr id="13" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2858,7 @@
         <xdr:cNvPr id="12" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,7 +2946,7 @@
         <xdr:cNvPr id="15" name="图片 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2872,6 +2969,182 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6057785" y="7107382"/>
+          <a:ext cx="5229224" cy="4016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1828800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>889000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4457700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2019300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721600" y="15074900"/>
+          <a:ext cx="2628900" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164985</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>643082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5394209</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>647098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057785" y="11488882"/>
+          <a:ext cx="5229224" cy="4016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1130300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1676400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454900" y="17983200"/>
+          <a:ext cx="1219200" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164985</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>643082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5394209</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>647098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761BEA0-8698-4EDF-9129-C3F5D58E0254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057785" y="14828982"/>
           <a:ext cx="5229224" cy="4016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3173,7 +3446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3184,7 +3457,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="C9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3703,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3745,7 +4018,10 @@
         <v>61</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="187" customHeight="1">
@@ -3758,6 +4034,9 @@
       <c r="D3" s="18" t="s">
         <v>64</v>
       </c>
+      <c r="E3" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="165" customHeight="1">
       <c r="A4" s="19" t="s">
@@ -3769,6 +4048,9 @@
       <c r="D4" s="18" t="s">
         <v>65</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="345" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -3778,7 +4060,10 @@
         <v>61</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="263" customHeight="1">
@@ -3791,14 +4076,37 @@
       <c r="D6" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="210" customHeight="1">
+      <c r="A7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="200" customHeight="1">
+      <c r="A8" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="25">
       <c r="A9" s="20"/>
